--- a/data/trans_dic/IP42B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP42B-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,62%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>16,12%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>12,56%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,55</t>
+          <t>0,0; 19,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 27,79</t>
+          <t>7,33; 25,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 25,03</t>
+          <t>1,18; 10,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,08</t>
+          <t>0,0; 18,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 26,3</t>
+          <t>7,81; 26,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,44</t>
+          <t>5,07; 23,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0,0; 12,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 22,99</t>
+          <t>9,63; 23,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,48</t>
+          <t>4,14; 15,18</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4,64%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>15,24%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>4,19%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,58</t>
+          <t>1,35; 11,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 24,7</t>
+          <t>10,43; 26,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,15</t>
+          <t>3,12; 14,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 12,73</t>
+          <t>1,16; 10,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 28,44</t>
+          <t>8,82; 23,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,54</t>
+          <t>1,64; 9,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,33</t>
+          <t>2,0; 8,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 22,66</t>
+          <t>10,99; 23,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,83</t>
+          <t>2,81; 9,33</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>18,77%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>14,5%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>6,16%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,32%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 32,79</t>
+          <t>4,35; 35,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 24,23</t>
+          <t>3,81; 22,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,45</t>
+          <t>2,83; 16,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 35,93</t>
+          <t>9,25; 33,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 22,13</t>
+          <t>7,72; 26,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,1</t>
+          <t>2,37; 13,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 28,02</t>
+          <t>10,27; 29,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 20,2</t>
+          <t>8,08; 20,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 11,99</t>
+          <t>3,56; 11,57</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>9,61%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>9,79%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 12,25</t>
+          <t>6,09; 21,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 20,25</t>
+          <t>9,37; 29,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 18,82</t>
+          <t>7,35; 24,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 21,87</t>
+          <t>1,36; 12,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 29,7</t>
+          <t>4,38; 19,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 23,53</t>
+          <t>4,74; 17,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,67</t>
+          <t>5,46; 14,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 20,44</t>
+          <t>8,49; 20,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 17,6</t>
+          <t>7,07; 17,97</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,32%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>14,04%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>7,49%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,14</t>
+          <t>5,52; 13,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 18,13</t>
+          <t>11,54; 20,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,51</t>
+          <t>5,69; 12,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 14,24</t>
+          <t>4,37; 10,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 20,83</t>
+          <t>10,09; 18,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,58</t>
+          <t>4,81; 10,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,01</t>
+          <t>5,83; 10,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,77</t>
+          <t>11,98; 17,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,19</t>
+          <t>5,96; 10,07</t>
         </is>
       </c>
     </row>
